--- a/ubv_desing_params_00.xlsx
+++ b/ubv_desing_params_00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kutla\Documents\GitHub\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1762F894-549F-4315-929F-F1491FD0445E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E0518F-FB3E-47A4-9922-22C23441731B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{1FBF37E3-FA93-4DBE-8BE5-46D2802649B7}"/>
+    <workbookView xWindow="5625" yWindow="2505" windowWidth="21600" windowHeight="12735" xr2:uid="{1FBF37E3-FA93-4DBE-8BE5-46D2802649B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
   <si>
     <t>mm</t>
   </si>
@@ -184,21 +184,9 @@
     <t>sealing_surface_t_face_oring</t>
   </si>
   <si>
-    <t>face_oring_gland_depth + 1.5</t>
-  </si>
-  <si>
-    <t>coil_former_h_out - 2 * sealing_surface_t_face_oring</t>
-  </si>
-  <si>
     <t>magnetic_top_h + shell_h + 2</t>
   </si>
   <si>
-    <t>coil_former_hole_d + coil_former_t</t>
-  </si>
-  <si>
-    <t>magnetic_core_d + clearance</t>
-  </si>
-  <si>
     <t>magnetic_casing_din</t>
   </si>
   <si>
@@ -235,9 +223,6 @@
     <t>mid_casing_t</t>
   </si>
   <si>
-    <t>mid_casing_in</t>
-  </si>
-  <si>
     <t>mid_casing_orifice</t>
   </si>
   <si>
@@ -250,9 +235,6 @@
     <t>mid_casing_top_h</t>
   </si>
   <si>
-    <t>mid_casing_dout - 2 * mid_casing_t</t>
-  </si>
-  <si>
     <t>mid_core_din</t>
   </si>
   <si>
@@ -268,9 +250,6 @@
     <t>mid_core_seal_hole</t>
   </si>
   <si>
-    <t>mid_casing_orifice + 4 * mid_casing_orifice_rad</t>
-  </si>
-  <si>
     <t>mid_casing_orifice - 3</t>
   </si>
   <si>
@@ -286,7 +265,121 @@
     <t>mid_core_h</t>
   </si>
   <si>
-    <t>(magnetic_core_l - 3 - magnetic_top_bottom_t)* 2</t>
+    <t>mid_casing_din</t>
+  </si>
+  <si>
+    <t>coil_former_h_in + 2 * 4</t>
+  </si>
+  <si>
+    <t>face_oring_gland_depth + 1.66</t>
+  </si>
+  <si>
+    <t>magnetic_casing_bottom_dout</t>
+  </si>
+  <si>
+    <t>magnetic_core_boss_hole_d</t>
+  </si>
+  <si>
+    <t>magnetic_core_boss_hole_h</t>
+  </si>
+  <si>
+    <t>magnetic_core_seal_support_d</t>
+  </si>
+  <si>
+    <t>magnetic_core_seal_support_h</t>
+  </si>
+  <si>
+    <t>magnetic_core_seal_support_d - 5</t>
+  </si>
+  <si>
+    <t>magnetic_core_seal_support_d + 5</t>
+  </si>
+  <si>
+    <t>coil_former_h_out / 2 + 12.5</t>
+  </si>
+  <si>
+    <t>mid_core_seal_support_d</t>
+  </si>
+  <si>
+    <t>mid_core_seal_support_h</t>
+  </si>
+  <si>
+    <t>mid_casing_top_h + mid_casing_orifice_h - 0.5 - mid_core_seal_h</t>
+  </si>
+  <si>
+    <t>mid_core_hole_d</t>
+  </si>
+  <si>
+    <t>mid_core_hole_thread_h</t>
+  </si>
+  <si>
+    <t>mid_casing_edge</t>
+  </si>
+  <si>
+    <t>spring_core_dout</t>
+  </si>
+  <si>
+    <t>spring_core_boss_dout</t>
+  </si>
+  <si>
+    <t>spring_core_boss_h</t>
+  </si>
+  <si>
+    <t>spring_core_h</t>
+  </si>
+  <si>
+    <t>spring_core_edge_dout</t>
+  </si>
+  <si>
+    <t>spring_core_edge_h</t>
+  </si>
+  <si>
+    <t>magnetic_core_boss_h -3</t>
+  </si>
+  <si>
+    <t>spring_casing_dout</t>
+  </si>
+  <si>
+    <t>spring_casing_top_dout</t>
+  </si>
+  <si>
+    <t>spring_casing_top_h</t>
+  </si>
+  <si>
+    <t>spring_casing_din</t>
+  </si>
+  <si>
+    <t>spring_casing_din + 4</t>
+  </si>
+  <si>
+    <t>spring_casing_h</t>
+  </si>
+  <si>
+    <t>spring_core_edge_dout + 0.5</t>
+  </si>
+  <si>
+    <t>mid_casing_orifice_gland_width</t>
+  </si>
+  <si>
+    <t>mid_casing_orifice_gland_depth</t>
+  </si>
+  <si>
+    <t>mid_casing_orifice_dout</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>magnetic_casing_dout + 40</t>
+  </si>
+  <si>
+    <t>magnetic_casing_thread_dout</t>
+  </si>
+  <si>
+    <t>magnetic_casing_dout + 5</t>
+  </si>
+  <si>
+    <t>mid_casing_orifice + 4 * mid_casing_edge + 2</t>
   </si>
 </sst>
 </file>
@@ -352,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -409,42 +502,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -453,15 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -514,15 +567,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -537,9 +581,19 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7326A7-BB3C-4FF1-81A0-340B3664836D}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +970,7 @@
         <v>48</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
@@ -1011,310 +1065,310 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="5">
+      <c r="A14" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="35">
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="11">
+        <v>25</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="11">
+        <v>30</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="8">
+        <v>6</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="8">
+      <c r="B21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="8">
-        <v>3</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="11">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+      <c r="B35" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="11">
-        <v>20</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="C35" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="B38" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="B39" s="20">
+        <v>1</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>0</v>
@@ -1322,10 +1376,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="C40" s="21" t="s">
         <v>0</v>
@@ -1333,280 +1387,556 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+      <c r="B43" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="B45" s="20">
+        <v>6</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="23">
+      <c r="B47" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="8">
+        <v>15</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="8">
+        <v>10</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="8">
+        <v>8</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="8">
+        <v>20</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="8">
+        <v>2</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B56" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="26">
         <v>1</v>
       </c>
-      <c r="C44" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" s="23">
-        <v>5</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="C60" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="26">
+        <v>3</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="26">
+        <v>20</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="26">
+        <v>2</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" s="26">
+        <v>1.254</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B65" s="26">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="26">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C70" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71" s="29">
+        <v>3</v>
+      </c>
+      <c r="C71" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B73" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C73" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B75" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C75" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B76" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C82" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" s="37">
+        <v>26</v>
+      </c>
+      <c r="C83" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="37">
+        <v>4</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B86" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B50" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="32">
-        <v>13</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="32">
-        <v>1</v>
-      </c>
-      <c r="C54" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="32">
-        <v>3</v>
-      </c>
-      <c r="C55" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="32">
-        <v>11.5</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="35">
-        <v>6</v>
-      </c>
-      <c r="C59" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="35">
-        <v>12</v>
-      </c>
-      <c r="C60" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B61" s="35">
-        <v>14.5</v>
-      </c>
-      <c r="C61" s="36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" s="39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="B65" s="41">
-        <v>3</v>
-      </c>
-      <c r="C65" s="42" t="s">
+      <c r="C86" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="C88" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="40" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ubv_desing_params_00.xlsx
+++ b/ubv_desing_params_00.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kutla\Documents\GitHub\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kutlayhanli/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E0518F-FB3E-47A4-9922-22C23441731B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1666F976-72FA-FE44-8C36-3319DA19831D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5625" yWindow="2505" windowWidth="21600" windowHeight="12735" xr2:uid="{1FBF37E3-FA93-4DBE-8BE5-46D2802649B7}"/>
+    <workbookView xWindow="5620" yWindow="2500" windowWidth="21600" windowHeight="12740" xr2:uid="{1FBF37E3-FA93-4DBE-8BE5-46D2802649B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,9 +349,6 @@
     <t>spring_casing_din</t>
   </si>
   <si>
-    <t>spring_casing_din + 4</t>
-  </si>
-  <si>
     <t>spring_casing_h</t>
   </si>
   <si>
@@ -380,6 +377,9 @@
   </si>
   <si>
     <t>mid_casing_orifice + 4 * mid_casing_edge + 2</t>
+  </si>
+  <si>
+    <t>spring_casing_din + 8</t>
   </si>
 </sst>
 </file>
@@ -910,18 +910,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7326A7-BB3C-4FF1-81A0-340B3664836D}">
   <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="58" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="58" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="69.5" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>34</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
         <v>2</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>8</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>43</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>11</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
@@ -1268,7 +1268,7 @@
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1285,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>18</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>19</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>20</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>21</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
         <v>22</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="19" t="s">
         <v>50</v>
       </c>
@@ -1363,18 +1363,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="19" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="19" t="s">
         <v>58</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="19" t="s">
         <v>51</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="19" t="s">
         <v>53</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="19" t="s">
         <v>54</v>
       </c>
@@ -1418,18 +1418,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="19" t="s">
         <v>55</v>
       </c>
@@ -1440,18 +1440,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>113</v>
-      </c>
       <c r="C46" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>56</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>39</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>40</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>41</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>42</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>80</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>81</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>82</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>83</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="22" t="s">
         <v>76</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
         <v>60</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
         <v>61</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
         <v>62</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="25" t="s">
         <v>63</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="25" t="s">
         <v>64</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="25" t="s">
         <v>65</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="25" t="s">
         <v>92</v>
       </c>
@@ -1638,40 +1638,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B64" s="26">
         <v>1.254</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B65" s="26">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66" s="26">
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="28" t="s">
         <v>67</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="28" t="s">
         <v>66</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="28" t="s">
         <v>72</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="28" t="s">
         <v>73</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="28" t="s">
         <v>74</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="28" t="s">
         <v>75</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="28" t="s">
         <v>87</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="28" t="s">
         <v>88</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="28" t="s">
         <v>90</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="28" t="s">
         <v>91</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="31" t="s">
         <v>70</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="31" t="s">
         <v>68</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="31" t="s">
         <v>69</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="37" t="s">
         <v>93</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="37" t="s">
         <v>94</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="37" t="s">
         <v>95</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="37" t="s">
         <v>96</v>
       </c>
@@ -1858,18 +1858,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="37" t="s">
         <v>97</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="37" t="s">
         <v>98</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="38" t="s">
         <v>101</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
         <v>102</v>
       </c>
@@ -1902,31 +1902,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="38" t="s">
         <v>103</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C88" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="38" t="s">
         <v>100</v>
       </c>
       <c r="B89" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="C89" s="40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="38" t="s">
-        <v>105</v>
       </c>
       <c r="B90" s="37" t="s">
         <v>96</v>

--- a/ubv_desing_params_00.xlsx
+++ b/ubv_desing_params_00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kutla\Documents\GitHub\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E0518F-FB3E-47A4-9922-22C23441731B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD04042E-3D1A-4102-8DD6-E75D6BB2DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="2505" windowWidth="21600" windowHeight="12735" xr2:uid="{1FBF37E3-FA93-4DBE-8BE5-46D2802649B7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
   <si>
     <t>mm</t>
   </si>
@@ -295,9 +295,6 @@
     <t>magnetic_core_seal_support_d + 5</t>
   </si>
   <si>
-    <t>coil_former_h_out / 2 + 12.5</t>
-  </si>
-  <si>
     <t>mid_core_seal_support_d</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>spring_casing_din</t>
   </si>
   <si>
-    <t>spring_casing_din + 4</t>
-  </si>
-  <si>
     <t>spring_casing_h</t>
   </si>
   <si>
@@ -367,12 +361,6 @@
     <t>mid_casing_orifice_dout</t>
   </si>
   <si>
-    <t>in</t>
-  </si>
-  <si>
-    <t>magnetic_casing_dout + 40</t>
-  </si>
-  <si>
     <t>magnetic_casing_thread_dout</t>
   </si>
   <si>
@@ -380,6 +368,39 @@
   </si>
   <si>
     <t>mid_casing_orifice + 4 * mid_casing_edge + 2</t>
+  </si>
+  <si>
+    <t>corner_radius</t>
+  </si>
+  <si>
+    <t>centering_edge</t>
+  </si>
+  <si>
+    <t>spring_core_h+5</t>
+  </si>
+  <si>
+    <t>spring_casing_din + 6</t>
+  </si>
+  <si>
+    <t>coil_former_h_out / 2 + 7.5</t>
+  </si>
+  <si>
+    <t>magnetic_casing_dout + 45</t>
+  </si>
+  <si>
+    <t>bolt_offset</t>
+  </si>
+  <si>
+    <t>mid_casing_orifice_din</t>
+  </si>
+  <si>
+    <t>mid_casing_orifice_din + 2 * mid_casing_orifice_gland_width</t>
+  </si>
+  <si>
+    <t>mid_casing_orifice_gland_depth + 3</t>
+  </si>
+  <si>
+    <t>magnetic_core_boss_hole_h - 1</t>
   </si>
 </sst>
 </file>
@@ -908,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7326A7-BB3C-4FF1-81A0-340B3664836D}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1053,261 +1074,243 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B16" s="1">
         <v>1.5</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+      <c r="C16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="35">
+      <c r="B17" s="35">
         <v>0.05</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C17" s="36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="C18" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B19" s="11">
         <v>25</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="C19" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B20" s="11">
         <v>9</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
+      <c r="C20" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B21" s="11">
         <v>30</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="C21" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B22" s="8">
         <v>1.5</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="C22" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B23" s="8">
         <v>6</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="C23" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
+      <c r="C24" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
+      <c r="C25" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+      <c r="C26" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="C27" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="C28" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
+      <c r="C29" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="C30" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="C31" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B32" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="C32" s="15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B33" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="2"/>
+      <c r="C33" s="15" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>0</v>
@@ -1320,77 +1323,95 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B38" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="C38" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B39" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="C39" s="18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B40" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="20">
-        <v>1</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="18" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C41" s="21" t="s">
         <v>0</v>
@@ -1398,10 +1419,10 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>48</v>
+        <v>52</v>
+      </c>
+      <c r="B42" s="20">
+        <v>3</v>
       </c>
       <c r="C42" s="21" t="s">
         <v>0</v>
@@ -1409,10 +1430,10 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C43" s="21" t="s">
         <v>0</v>
@@ -1420,10 +1441,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>111</v>
+        <v>51</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>49</v>
       </c>
       <c r="C44" s="21" t="s">
         <v>0</v>
@@ -1431,10 +1452,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="20">
-        <v>6</v>
+        <v>53</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C45" s="21" t="s">
         <v>0</v>
@@ -1442,65 +1463,65 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>113</v>
+        <v>54</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="20">
+        <v>6</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B50" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C47" s="21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B50" s="8">
-        <v>15</v>
-      </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" s="8">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>0</v>
@@ -1508,10 +1529,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="8">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>0</v>
@@ -1519,10 +1540,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="B53" s="8">
+        <v>15</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>0</v>
@@ -1530,76 +1551,76 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="8">
+        <v>10</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="8">
+        <v>8</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B54" s="8">
+      <c r="B57" s="8">
         <v>20</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
+      <c r="C57" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B55" s="8">
+      <c r="B58" s="8">
         <v>2</v>
       </c>
-      <c r="C55" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="22" t="s">
+      <c r="C58" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B56" s="23" t="s">
+      <c r="B59" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C57" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="C58" s="27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="C59" s="27" t="s">
+      <c r="C59" s="24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="26">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>79</v>
       </c>
       <c r="C60" s="27" t="s">
         <v>0</v>
@@ -1607,10 +1628,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="26">
-        <v>3</v>
+        <v>61</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="C61" s="27" t="s">
         <v>0</v>
@@ -1618,10 +1639,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="26">
-        <v>20</v>
+        <v>62</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>84</v>
       </c>
       <c r="C62" s="27" t="s">
         <v>0</v>
@@ -1629,10 +1650,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="25" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="B63" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="27" t="s">
         <v>0</v>
@@ -1640,87 +1661,87 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="25" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="B64" s="26">
-        <v>1.254</v>
+        <v>3</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="25" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="B65" s="26">
-        <v>8.4000000000000005E-2</v>
+        <v>15</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="25" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="B66" s="26">
-        <v>5.1999999999999998E-2</v>
+        <v>2</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="B67" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C67" s="30" t="s">
+      <c r="A67" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="B67" s="26">
+        <v>35</v>
+      </c>
+      <c r="C67" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B68" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="30" t="s">
+      <c r="A68" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="B68" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="C68" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="30" t="s">
+      <c r="A69" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="B69" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="C69" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="30" t="s">
+      <c r="A70" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C70" s="27" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="29">
-        <v>3</v>
+        <v>67</v>
+      </c>
+      <c r="B71" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="C71" s="30" t="s">
         <v>0</v>
@@ -1728,10 +1749,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B72" s="29" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C72" s="30" t="s">
         <v>0</v>
@@ -1739,10 +1760,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B73" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C73" s="30" t="s">
         <v>0</v>
@@ -1750,10 +1771,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B74" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C74" s="30" t="s">
         <v>0</v>
@@ -1761,10 +1782,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B75" s="29" t="s">
-        <v>80</v>
+        <v>74</v>
+      </c>
+      <c r="B75" s="29">
+        <v>3</v>
       </c>
       <c r="C75" s="30" t="s">
         <v>0</v>
@@ -1772,98 +1793,98 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="28" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B76" s="29" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C76" s="30" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="31" t="s">
+      <c r="A77" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C77" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B81" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="31" t="s">
+      <c r="C81" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="B78" s="32" t="s">
+      <c r="B82" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C78" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="31" t="s">
+      <c r="C82" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="B79" s="32" t="s">
+      <c r="B83" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C79" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B82" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C82" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B83" s="37">
-        <v>26</v>
-      </c>
-      <c r="C83" s="37" t="s">
+      <c r="C83" s="33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C84" s="37" t="s">
         <v>0</v>
@@ -1871,67 +1892,111 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="37">
+        <v>93</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C86" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" s="37">
+        <v>26</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C88" s="37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" s="37">
         <v>4</v>
       </c>
-      <c r="C85" s="37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C87" s="38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C88" s="40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="38" t="s">
-        <v>100</v>
-      </c>
-      <c r="B89" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="C90" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B90" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B92" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B94" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="C94" s="40" t="s">
         <v>0</v>
       </c>
     </row>

--- a/ubv_desing_params_00.xlsx
+++ b/ubv_desing_params_00.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kutla\Documents\GitHub\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD04042E-3D1A-4102-8DD6-E75D6BB2DDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815D730C-B561-4995-8DE9-B0C90006A3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5625" yWindow="2505" windowWidth="21600" windowHeight="12735" xr2:uid="{1FBF37E3-FA93-4DBE-8BE5-46D2802649B7}"/>
   </bookViews>
@@ -931,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7326A7-BB3C-4FF1-81A0-340B3664836D}">
   <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="58" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
